--- a/Excel/05-Profit-&-Balance-by-Market.xlsx
+++ b/Excel/05-Profit-&-Balance-by-Market.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26611"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1196" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F80E5AA8-A645-4DC2-A04D-8B58EF7D4C76}"/>
+  <xr:revisionPtr revIDLastSave="1210" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E1EB3FD-8BA1-4E4A-A9BD-E412BB5AC809}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>14.62, 25.6, 59.77</t>
+  </si>
+  <si>
+    <t>-2.03, 99.24, 2.79</t>
+  </si>
+  <si>
+    <t>15.51, 25.79, 58.7</t>
   </si>
   <si>
     <t>Market</t>
@@ -522,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1040,6 +1046,37 @@
         <v>11656850</v>
       </c>
     </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="45">
+      <c r="A38" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="5"/>
+      <c r="B39" s="4">
+        <v>-156000</v>
+      </c>
+      <c r="C39" s="13">
+        <v>11570640</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1049,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F4CBCB-3344-43F6-9D2A-BD9A74C7367A}">
   <dimension ref="A1:XFD147"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1068,14 +1105,14 @@
         <v>44883</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="10">
         <v>44890</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -1183,14 +1220,14 @@
         <v>44897</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="10">
         <v>44904</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="12"/>
     </row>
@@ -1298,13 +1335,13 @@
         <v>44918</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" s="10">
         <v>44925</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F15" s="7"/>
     </row>
@@ -1413,13 +1450,13 @@
         <v>44939</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" s="10">
         <v>44946</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F22" s="7"/>
     </row>
@@ -1528,13 +1565,13 @@
         <v>44953</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D29" s="10">
         <v>44960</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F29" s="7"/>
     </row>
@@ -1650,13 +1687,13 @@
         <v>44967</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D36" s="10">
         <v>44981</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F36" s="7"/>
     </row>
@@ -1774,14 +1811,14 @@
         <v>44985</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10">
         <v>44988</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -18275,14 +18312,14 @@
         <v>44995</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10">
         <v>45002</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F50" s="10"/>
     </row>
@@ -18403,14 +18440,14 @@
         <v>45009</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10">
         <v>45016</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F57" s="10"/>
     </row>
@@ -18529,14 +18566,14 @@
         <v>45023</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10">
         <v>45028</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F64" s="10"/>
     </row>
@@ -18652,14 +18689,14 @@
         <v>45037</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10">
         <v>45044</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F71" s="10"/>
     </row>
@@ -18775,14 +18812,14 @@
         <v>45048</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10">
         <v>45065</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F78" s="10"/>
     </row>
@@ -18898,14 +18935,14 @@
         <v>45072</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="10">
         <v>45079</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F85" s="10"/>
     </row>
@@ -19021,9 +19058,16 @@
         <v>45086</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C92" s="10"/>
+      <c r="D92" s="10">
+        <v>45093</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92" s="10"/>
     </row>
     <row r="93" spans="1:6" ht="12.75">
       <c r="A93" s="6">
@@ -19036,6 +19080,16 @@
         <f>B93/B97</f>
         <v>0.54926142702159753</v>
       </c>
+      <c r="D93" s="6">
+        <v>2</v>
+      </c>
+      <c r="E93" s="8">
+        <v>4252010</v>
+      </c>
+      <c r="F93" s="7">
+        <f>E93/E97</f>
+        <v>0.52771784289012957</v>
+      </c>
     </row>
     <row r="94" spans="1:6" ht="12.75">
       <c r="A94" s="6">
@@ -19048,6 +19102,16 @@
         <f>B94/B97</f>
         <v>0.24030713142417892</v>
       </c>
+      <c r="D94" s="6">
+        <v>1</v>
+      </c>
+      <c r="E94" s="8">
+        <v>2006000</v>
+      </c>
+      <c r="F94" s="7">
+        <f>E94/E97</f>
+        <v>0.24896507600819376</v>
+      </c>
     </row>
     <row r="95" spans="1:6" ht="12.75">
       <c r="A95" s="6">
@@ -19060,6 +19124,16 @@
         <f>B95/B97</f>
         <v>0.13432395046750603</v>
       </c>
+      <c r="D95" s="6">
+        <v>4</v>
+      </c>
+      <c r="E95" s="8">
+        <v>1180145</v>
+      </c>
+      <c r="F95" s="7">
+        <f>E95/E97</f>
+        <v>0.1464680406907726</v>
+      </c>
     </row>
     <row r="96" spans="1:6" ht="12.75">
       <c r="A96" s="6">
@@ -19072,8 +19146,18 @@
         <f>B96/B97</f>
         <v>7.610749108671748E-2</v>
       </c>
+      <c r="D96" s="6">
+        <v>3</v>
+      </c>
+      <c r="E96" s="8">
+        <v>619200</v>
+      </c>
+      <c r="F96" s="7">
+        <f>E96/E97</f>
+        <v>7.6849040410904068E-2</v>
+      </c>
     </row>
-    <row r="97" spans="2:3">
+    <row r="97" spans="2:6">
       <c r="B97" s="9">
         <f>SUM(B93:B96)</f>
         <v>8143745</v>
@@ -19082,18 +19166,26 @@
         <f>SUM(C93:C96)</f>
         <v>0.99999999999999989</v>
       </c>
+      <c r="E97" s="9">
+        <f>SUM(E93:E96)</f>
+        <v>8057355</v>
+      </c>
+      <c r="F97" s="7">
+        <f>SUM(F93:F96)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="98" spans="2:3" ht="12.75"/>
-    <row r="99" spans="2:3" ht="12.75"/>
-    <row r="100" spans="2:3" ht="12.75"/>
-    <row r="101" spans="2:3" ht="12.75"/>
-    <row r="102" spans="2:3" ht="12.75"/>
-    <row r="105" spans="2:3" ht="12.75"/>
-    <row r="106" spans="2:3" ht="12.75"/>
-    <row r="107" spans="2:3" ht="12.75"/>
-    <row r="108" spans="2:3" ht="12.75"/>
-    <row r="109" spans="2:3" ht="12.75"/>
-    <row r="112" spans="2:3" ht="12.75"/>
+    <row r="98" spans="2:6" ht="12.75"/>
+    <row r="99" spans="2:6" ht="12.75"/>
+    <row r="100" spans="2:6" ht="12.75"/>
+    <row r="101" spans="2:6" ht="12.75"/>
+    <row r="102" spans="2:6" ht="12.75"/>
+    <row r="105" spans="2:6" ht="12.75"/>
+    <row r="106" spans="2:6" ht="12.75"/>
+    <row r="107" spans="2:6" ht="12.75"/>
+    <row r="108" spans="2:6" ht="12.75"/>
+    <row r="109" spans="2:6" ht="12.75"/>
+    <row r="112" spans="2:6" ht="12.75"/>
     <row r="113" ht="12.75"/>
     <row r="114" ht="12.75"/>
     <row r="115" ht="12.75"/>

--- a/Excel/05-Profit-&-Balance-by-Market.xlsx
+++ b/Excel/05-Profit-&-Balance-by-Market.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26704"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1222" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E9CC8B6-8EFE-45CE-B68B-1E3E7B57B61A}"/>
+  <xr:revisionPtr revIDLastSave="1247" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5200D351-F005-4659-BD3F-0A8BEECAE109}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>16.36, 25.42, 58.22</t>
+  </si>
+  <si>
+    <t>35.8, 63.61, 0.6</t>
+  </si>
+  <si>
+    <t>13.86, 26.24, 59.9</t>
+  </si>
+  <si>
+    <t>35.33, 64.07, 0.6</t>
+  </si>
+  <si>
+    <t>14.46, 25.86, 59.69</t>
   </si>
   <si>
     <t>Market</t>
@@ -534,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1083,7 +1095,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2">
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>26</v>
@@ -1106,6 +1118,62 @@
       </c>
       <c r="F39" s="13">
         <v>11740390</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="45">
+      <c r="A42" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45114</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="5"/>
+      <c r="B43" s="4">
+        <v>-239000</v>
+      </c>
+      <c r="C43" s="13">
+        <v>11373990</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="4">
+        <v>-237000</v>
+      </c>
+      <c r="F43" s="13">
+        <v>11542090</v>
       </c>
     </row>
   </sheetData>
@@ -1115,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F4CBCB-3344-43F6-9D2A-BD9A74C7367A}">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1136,14 +1204,14 @@
         <v>44883</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="10">
         <v>44890</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -1251,14 +1319,14 @@
         <v>44897</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="10">
         <v>44904</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F8" s="12"/>
     </row>
@@ -1366,13 +1434,13 @@
         <v>44918</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D15" s="10">
         <v>44925</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7"/>
     </row>
@@ -1481,13 +1549,13 @@
         <v>44939</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D22" s="10">
         <v>44946</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F22" s="7"/>
     </row>
@@ -1596,13 +1664,13 @@
         <v>44953</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D29" s="10">
         <v>44960</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F29" s="7"/>
     </row>
@@ -1718,13 +1786,13 @@
         <v>44967</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D36" s="10">
         <v>44981</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F36" s="7"/>
     </row>
@@ -1840,14 +1908,14 @@
         <v>44985</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10">
         <v>44988</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F43" s="10"/>
     </row>
@@ -1962,14 +2030,14 @@
         <v>44995</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10">
         <v>45002</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F50" s="10"/>
     </row>
@@ -2090,14 +2158,14 @@
         <v>45009</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10">
         <v>45016</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F57" s="10"/>
     </row>
@@ -2216,14 +2284,14 @@
         <v>45023</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10">
         <v>45028</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F64" s="10"/>
     </row>
@@ -2339,14 +2407,14 @@
         <v>45037</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10">
         <v>45044</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F71" s="10"/>
     </row>
@@ -2462,14 +2530,14 @@
         <v>45048</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10">
         <v>45065</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F78" s="10"/>
     </row>
@@ -2585,14 +2653,14 @@
         <v>45072</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="10">
         <v>45079</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F85" s="10"/>
     </row>
@@ -2708,14 +2776,14 @@
         <v>45086</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10">
         <v>45093</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F92" s="10"/>
     </row>
@@ -2831,9 +2899,16 @@
         <v>45100</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C99" s="10"/>
+      <c r="D99" s="10">
+        <v>45107</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F99" s="10"/>
     </row>
     <row r="100" spans="1:6" ht="12.75">
       <c r="A100" s="6">
@@ -2846,6 +2921,16 @@
         <f>B100/B104</f>
         <v>0.5177615596559223</v>
       </c>
+      <c r="D100" s="6">
+        <v>2</v>
+      </c>
+      <c r="E100" s="8">
+        <v>3737780</v>
+      </c>
+      <c r="F100" s="7">
+        <f>E100/E104</f>
+        <v>0.49937007263870758</v>
+      </c>
     </row>
     <row r="101" spans="1:6" ht="12.75">
       <c r="A101" s="6">
@@ -2858,6 +2943,16 @@
         <f>B101/B104</f>
         <v>0.24670106085530505</v>
       </c>
+      <c r="D101" s="6">
+        <v>1</v>
+      </c>
+      <c r="E101" s="8">
+        <v>1899900</v>
+      </c>
+      <c r="F101" s="7">
+        <f>E101/E104</f>
+        <v>0.25382799442617826</v>
+      </c>
     </row>
     <row r="102" spans="1:6" ht="12.75">
       <c r="A102" s="6">
@@ -2870,6 +2965,16 @@
         <f>B102/B104</f>
         <v>0.15123681570249198</v>
       </c>
+      <c r="D102" s="6">
+        <v>4</v>
+      </c>
+      <c r="E102" s="8">
+        <v>1182510</v>
+      </c>
+      <c r="F102" s="7">
+        <f>E102/E104</f>
+        <v>0.15798417900357917</v>
+      </c>
     </row>
     <row r="103" spans="1:6" ht="12.75">
       <c r="A103" s="6">
@@ -2881,6 +2986,16 @@
       <c r="C103" s="7">
         <f>B103/B104</f>
         <v>8.4300563786280688E-2</v>
+      </c>
+      <c r="D103" s="6">
+        <v>3</v>
+      </c>
+      <c r="E103" s="8">
+        <v>664800</v>
+      </c>
+      <c r="F103" s="7">
+        <f>E103/E104</f>
+        <v>8.8817753931534973E-2</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2892,6 +3007,81 @@
         <f>SUM(C100:C103)</f>
         <v>1</v>
       </c>
+      <c r="E104" s="9">
+        <f>SUM(E100:E103)</f>
+        <v>7484990</v>
+      </c>
+      <c r="F104" s="7">
+        <f>SUM(F100:F103)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="12.75">
+      <c r="A106" s="10">
+        <v>45114</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="10"/>
+    </row>
+    <row r="107" spans="1:6" ht="12.75">
+      <c r="A107" s="6">
+        <v>2</v>
+      </c>
+      <c r="B107" s="8">
+        <v>3797400</v>
+      </c>
+      <c r="C107" s="7">
+        <f>B107/B111</f>
+        <v>0.49900524839880472</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="12.75">
+      <c r="A108" s="6">
+        <v>1</v>
+      </c>
+      <c r="B108" s="8">
+        <v>1917000</v>
+      </c>
+      <c r="C108" s="7">
+        <f>B108/B111</f>
+        <v>0.25190737377692862</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="12.75">
+      <c r="A109" s="6">
+        <v>4</v>
+      </c>
+      <c r="B109" s="8">
+        <v>1183040</v>
+      </c>
+      <c r="C109" s="7">
+        <f>B109/B111</f>
+        <v>0.15545983279763045</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="12.75">
+      <c r="A110" s="6">
+        <v>3</v>
+      </c>
+      <c r="B110" s="8">
+        <v>712500</v>
+      </c>
+      <c r="C110" s="7">
+        <f>B110/B111</f>
+        <v>9.3627545026636214E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="B111" s="9">
+        <f>SUM(B107:B110)</f>
+        <v>7609940</v>
+      </c>
+      <c r="C111" s="7">
+        <f>SUM(C107:C110)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/05-Profit-&-Balance-by-Market.xlsx
+++ b/Excel/05-Profit-&-Balance-by-Market.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26711"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1247" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5200D351-F005-4659-BD3F-0A8BEECAE109}"/>
+  <xr:revisionPtr revIDLastSave="1267" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFA3B375-96F7-4A80-8DA6-0E14E920033A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profit &amp; Balance" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>14.46, 25.86, 59.69</t>
+  </si>
+  <si>
+    <t>36.6, 62.81, 0.59</t>
+  </si>
+  <si>
+    <t>14.07, 26.22, 59.71</t>
   </si>
   <si>
     <t>Market</t>
@@ -546,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1176,6 +1182,37 @@
         <v>11542090</v>
       </c>
     </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="45">
+      <c r="A46" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4">
+        <v>-242000</v>
+      </c>
+      <c r="C47" s="13">
+        <v>11538130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1183,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F4CBCB-3344-43F6-9D2A-BD9A74C7367A}">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113:F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1204,14 +1241,14 @@
         <v>44883</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="10">
         <v>44890</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -1319,14 +1356,14 @@
         <v>44897</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="10">
         <v>44904</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" s="12"/>
     </row>
@@ -1434,13 +1471,13 @@
         <v>44918</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" s="10">
         <v>44925</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7"/>
     </row>
@@ -1549,13 +1586,13 @@
         <v>44939</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D22" s="10">
         <v>44946</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F22" s="7"/>
     </row>
@@ -1664,13 +1701,13 @@
         <v>44953</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D29" s="10">
         <v>44960</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F29" s="7"/>
     </row>
@@ -1786,13 +1823,13 @@
         <v>44967</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D36" s="10">
         <v>44981</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F36" s="7"/>
     </row>
@@ -1908,14 +1945,14 @@
         <v>44985</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10">
         <v>44988</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F43" s="10"/>
     </row>
@@ -2030,14 +2067,14 @@
         <v>44995</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10">
         <v>45002</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F50" s="10"/>
     </row>
@@ -2158,14 +2195,14 @@
         <v>45009</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10">
         <v>45016</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F57" s="10"/>
     </row>
@@ -2284,14 +2321,14 @@
         <v>45023</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10">
         <v>45028</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F64" s="10"/>
     </row>
@@ -2407,14 +2444,14 @@
         <v>45037</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10">
         <v>45044</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F71" s="10"/>
     </row>
@@ -2530,14 +2567,14 @@
         <v>45048</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10">
         <v>45065</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F78" s="10"/>
     </row>
@@ -2653,14 +2690,14 @@
         <v>45072</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="10">
         <v>45079</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F85" s="10"/>
     </row>
@@ -2776,14 +2813,14 @@
         <v>45086</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10">
         <v>45093</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F92" s="10"/>
     </row>
@@ -2899,14 +2936,14 @@
         <v>45100</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="10">
         <v>45107</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F99" s="10"/>
     </row>
@@ -3021,9 +3058,16 @@
         <v>45114</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C106" s="10"/>
+      <c r="D106" s="10">
+        <v>45121</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F106" s="10"/>
     </row>
     <row r="107" spans="1:6" ht="12.75">
       <c r="A107" s="6">
@@ -3036,6 +3080,16 @@
         <f>B107/B111</f>
         <v>0.49900524839880472</v>
       </c>
+      <c r="D107" s="6">
+        <v>2</v>
+      </c>
+      <c r="E107" s="8">
+        <v>3824920</v>
+      </c>
+      <c r="F107" s="7">
+        <f>E107/E111</f>
+        <v>0.50012258162792322</v>
+      </c>
     </row>
     <row r="108" spans="1:6" ht="12.75">
       <c r="A108" s="6">
@@ -3048,6 +3102,16 @@
         <f>B108/B111</f>
         <v>0.25190737377692862</v>
       </c>
+      <c r="D108" s="6">
+        <v>1</v>
+      </c>
+      <c r="E108" s="8">
+        <v>1316100</v>
+      </c>
+      <c r="F108" s="7">
+        <f>E108/E111</f>
+        <v>0.17208499254376819</v>
+      </c>
     </row>
     <row r="109" spans="1:6" ht="12.75">
       <c r="A109" s="6">
@@ -3060,6 +3124,16 @@
         <f>B109/B111</f>
         <v>0.15545983279763045</v>
       </c>
+      <c r="D109" s="6">
+        <v>3</v>
+      </c>
+      <c r="E109" s="8">
+        <v>1308425</v>
+      </c>
+      <c r="F109" s="7">
+        <f>E109/E111</f>
+        <v>0.1710814576165032</v>
+      </c>
     </row>
     <row r="110" spans="1:6" ht="12.75">
       <c r="A110" s="6">
@@ -3071,6 +3145,16 @@
       <c r="C110" s="7">
         <f>B110/B111</f>
         <v>9.3627545026636214E-2</v>
+      </c>
+      <c r="D110" s="6">
+        <v>4</v>
+      </c>
+      <c r="E110" s="8">
+        <v>1198520</v>
+      </c>
+      <c r="F110" s="7">
+        <f>E110/E111</f>
+        <v>0.15671096821180536</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3082,6 +3166,18 @@
         <f>SUM(C107:C110)</f>
         <v>1</v>
       </c>
+      <c r="E111" s="9">
+        <f>SUM(E107:E110)</f>
+        <v>7647965</v>
+      </c>
+      <c r="F111" s="7">
+        <f>SUM(F107:F110)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" ht="12.75">
+      <c r="E113" s="8"/>
+      <c r="F113" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/05-Profit-&-Balance-by-Market.xlsx
+++ b/Excel/05-Profit-&-Balance-by-Market.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26821"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1267" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFA3B375-96F7-4A80-8DA6-0E14E920033A}"/>
+  <xr:revisionPtr revIDLastSave="1326" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8119F923-66C6-4FC3-B618-67A0432D94D1}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profit &amp; Balance" sheetId="1" r:id="rId1"/>
-    <sheet name="CumSum" sheetId="2" r:id="rId2"/>
+    <sheet name="Market Amt by Period" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -131,6 +131,27 @@
   </si>
   <si>
     <t>14.07, 26.22, 59.71</t>
+  </si>
+  <si>
+    <t>35.25, 64.15, 0.6</t>
+  </si>
+  <si>
+    <t>13.79, 26.31, 59.9</t>
+  </si>
+  <si>
+    <t>13.68, 26.08, 60.24</t>
+  </si>
+  <si>
+    <t>31.54, 68.92, -0.46</t>
+  </si>
+  <si>
+    <t>12.36, 26.19, 61.45</t>
+  </si>
+  <si>
+    <t>31.15, 69.32, -0.47</t>
+  </si>
+  <si>
+    <t>12.14, 26.15, 61.72</t>
   </si>
   <si>
     <t>Market</t>
@@ -552,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1192,6 +1213,15 @@
       <c r="C45" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="45">
       <c r="A46" s="2">
@@ -1202,6 +1232,15 @@
       </c>
       <c r="C46" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45128</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1211,6 +1250,125 @@
       </c>
       <c r="C47" s="13">
         <v>11538130</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="4">
+        <v>-238000</v>
+      </c>
+      <c r="F47" s="13">
+        <v>11500730</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="45">
+      <c r="A50" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="2">
+        <v>45149</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4">
+        <v>-238000</v>
+      </c>
+      <c r="C51" s="13">
+        <v>11598630</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="4">
+        <v>-238000</v>
+      </c>
+      <c r="F51" s="13">
+        <v>11598630</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="45">
+      <c r="A54" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="2">
+        <v>45163</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="5"/>
+      <c r="B55" s="4">
+        <v>-223000</v>
+      </c>
+      <c r="C55" s="13">
+        <v>11551280</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="4">
+        <v>-222000</v>
+      </c>
+      <c r="F55" s="13">
+        <v>11571680</v>
       </c>
     </row>
   </sheetData>
@@ -1220,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F4CBCB-3344-43F6-9D2A-BD9A74C7367A}">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113:F113"/>
+    <sheetView topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1241,14 +1399,14 @@
         <v>44883</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="10">
         <v>44890</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -1356,14 +1514,14 @@
         <v>44897</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="10">
         <v>44904</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F8" s="12"/>
     </row>
@@ -1471,13 +1629,13 @@
         <v>44918</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D15" s="10">
         <v>44925</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7"/>
     </row>
@@ -1586,13 +1744,13 @@
         <v>44939</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D22" s="10">
         <v>44946</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F22" s="7"/>
     </row>
@@ -1701,13 +1859,13 @@
         <v>44953</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D29" s="10">
         <v>44960</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F29" s="7"/>
     </row>
@@ -1823,13 +1981,13 @@
         <v>44967</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D36" s="10">
         <v>44981</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F36" s="7"/>
     </row>
@@ -1945,14 +2103,14 @@
         <v>44985</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10">
         <v>44988</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F43" s="10"/>
     </row>
@@ -2067,14 +2225,14 @@
         <v>44995</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10">
         <v>45002</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F50" s="10"/>
     </row>
@@ -2195,14 +2353,14 @@
         <v>45009</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10">
         <v>45016</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F57" s="10"/>
     </row>
@@ -2321,14 +2479,14 @@
         <v>45023</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10">
         <v>45028</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F64" s="10"/>
     </row>
@@ -2444,14 +2602,14 @@
         <v>45037</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10">
         <v>45044</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F71" s="10"/>
     </row>
@@ -2567,14 +2725,14 @@
         <v>45048</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10">
         <v>45065</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F78" s="10"/>
     </row>
@@ -2690,14 +2848,14 @@
         <v>45072</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="10">
         <v>45079</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F85" s="10"/>
     </row>
@@ -2813,14 +2971,14 @@
         <v>45086</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10">
         <v>45093</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F92" s="10"/>
     </row>
@@ -2936,14 +3094,14 @@
         <v>45100</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="10">
         <v>45107</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F99" s="10"/>
     </row>
@@ -3058,14 +3216,14 @@
         <v>45114</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10">
         <v>45121</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F106" s="10"/>
     </row>
@@ -3175,9 +3333,316 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="5:6" ht="12.75">
-      <c r="E113" s="8"/>
-      <c r="F113" s="7"/>
+    <row r="113" spans="1:6" ht="12.75">
+      <c r="A113" s="10">
+        <v>45128</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10">
+        <v>45128</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F113" s="10"/>
+    </row>
+    <row r="114" spans="1:6" ht="12.75">
+      <c r="A114" s="6">
+        <v>2</v>
+      </c>
+      <c r="B114" s="8">
+        <v>3791280</v>
+      </c>
+      <c r="C114" s="7">
+        <f>B114/B118</f>
+        <v>0.50040982795145417</v>
+      </c>
+      <c r="D114" s="6">
+        <v>2</v>
+      </c>
+      <c r="E114" s="8">
+        <v>3839730</v>
+      </c>
+      <c r="F114" s="7">
+        <f>E114/E118</f>
+        <v>0.50130033918485961</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="12.75">
+      <c r="A115" s="6">
+        <v>1</v>
+      </c>
+      <c r="B115" s="8">
+        <v>1320900</v>
+      </c>
+      <c r="C115" s="7">
+        <f>B115/B118</f>
+        <v>0.17434516620800253</v>
+      </c>
+      <c r="D115" s="6">
+        <v>1</v>
+      </c>
+      <c r="E115" s="8">
+        <v>1324500</v>
+      </c>
+      <c r="F115" s="7">
+        <f>E115/E118</f>
+        <v>0.17292161148058499</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="12.75">
+      <c r="A116" s="6">
+        <v>3</v>
+      </c>
+      <c r="B116" s="8">
+        <v>1267050</v>
+      </c>
+      <c r="C116" s="7">
+        <f>B116/B118</f>
+        <v>0.16723752202577757</v>
+      </c>
+      <c r="D116" s="6">
+        <v>3</v>
+      </c>
+      <c r="E116" s="8">
+        <v>1280700</v>
+      </c>
+      <c r="F116" s="7">
+        <f>E116/E118</f>
+        <v>0.16720325241463588</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="12.75">
+      <c r="A117" s="6">
+        <v>4</v>
+      </c>
+      <c r="B117" s="8">
+        <v>1197120</v>
+      </c>
+      <c r="C117" s="7">
+        <f>B117/B118</f>
+        <v>0.15800748381476568</v>
+      </c>
+      <c r="D117" s="6">
+        <v>4</v>
+      </c>
+      <c r="E117" s="8">
+        <v>1214610</v>
+      </c>
+      <c r="F117" s="7">
+        <f>E117/E118</f>
+        <v>0.15857479691991946</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="B118" s="9">
+        <f>SUM(B114:B117)</f>
+        <v>7576350</v>
+      </c>
+      <c r="C118" s="7">
+        <f>SUM(C114:C117)</f>
+        <v>1</v>
+      </c>
+      <c r="E118" s="9">
+        <f>SUM(E114:E117)</f>
+        <v>7659540</v>
+      </c>
+      <c r="F118" s="7">
+        <f>SUM(F114:F117)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="12.75">
+      <c r="A120" s="10">
+        <v>45149</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10">
+        <v>45156</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F120" s="10"/>
+    </row>
+    <row r="121" spans="1:6" ht="12.75">
+      <c r="A121" s="6">
+        <v>2</v>
+      </c>
+      <c r="B121" s="8">
+        <v>3848970</v>
+      </c>
+      <c r="C121" s="7">
+        <f>B121/B125</f>
+        <v>0.49961966821568576</v>
+      </c>
+      <c r="D121" s="6">
+        <v>2</v>
+      </c>
+      <c r="E121" s="8">
+        <v>3878200</v>
+      </c>
+      <c r="F121" s="7">
+        <f>E121/E125</f>
+        <v>0.51548502007071273</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="12.75">
+      <c r="A122" s="6">
+        <v>4</v>
+      </c>
+      <c r="B122" s="8">
+        <v>1294030</v>
+      </c>
+      <c r="C122" s="7">
+        <f>B122/B125</f>
+        <v>0.16797294841506788</v>
+      </c>
+      <c r="D122" s="6">
+        <v>4</v>
+      </c>
+      <c r="E122" s="8">
+        <v>1874940</v>
+      </c>
+      <c r="F122" s="7">
+        <f>E122/E125</f>
+        <v>0.24921445091315098</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="12.75">
+      <c r="A123" s="6">
+        <v>1</v>
+      </c>
+      <c r="B123" s="8">
+        <v>1288800</v>
+      </c>
+      <c r="C123" s="7">
+        <f>B123/B125</f>
+        <v>0.16729406267037047</v>
+      </c>
+      <c r="D123" s="6">
+        <v>3</v>
+      </c>
+      <c r="E123" s="8">
+        <v>947460</v>
+      </c>
+      <c r="F123" s="7">
+        <f>E123/E125</f>
+        <v>0.12593508254246749</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="12.75">
+      <c r="A124" s="6">
+        <v>3</v>
+      </c>
+      <c r="B124" s="8">
+        <v>1272000</v>
+      </c>
+      <c r="C124" s="7">
+        <f>B124/B125</f>
+        <v>0.16511332069887588</v>
+      </c>
+      <c r="D124" s="6">
+        <v>1</v>
+      </c>
+      <c r="E124" s="8">
+        <v>822800</v>
+      </c>
+      <c r="F124" s="7">
+        <f>E124/E125</f>
+        <v>0.10936544647366882</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="B125" s="9">
+        <f>SUM(B121:B124)</f>
+        <v>7703800</v>
+      </c>
+      <c r="C125" s="7">
+        <f>SUM(C121:C124)</f>
+        <v>1</v>
+      </c>
+      <c r="E125" s="9">
+        <f>SUM(E121:E124)</f>
+        <v>7523400</v>
+      </c>
+      <c r="F125" s="7">
+        <f>SUM(F121:F124)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="12.75">
+      <c r="A127" s="10">
+        <v>45163</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C127" s="10"/>
+    </row>
+    <row r="128" spans="1:6" ht="12.75">
+      <c r="A128" s="6">
+        <v>2</v>
+      </c>
+      <c r="B128" s="8">
+        <v>3928900</v>
+      </c>
+      <c r="C128" s="7">
+        <f>B128/B132</f>
+        <v>0.51078971608131496</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="12.75">
+      <c r="A129" s="6">
+        <v>4</v>
+      </c>
+      <c r="B129" s="8">
+        <v>1913060</v>
+      </c>
+      <c r="C129" s="7">
+        <f>B129/B132</f>
+        <v>0.24871373011441383</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="12.75">
+      <c r="A130" s="6">
+        <v>3</v>
+      </c>
+      <c r="B130" s="8">
+        <v>1001355</v>
+      </c>
+      <c r="C130" s="7">
+        <f>B130/B132</f>
+        <v>0.13018448831647667</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="12.75">
+      <c r="A131" s="6">
+        <v>1</v>
+      </c>
+      <c r="B131" s="8">
+        <v>848500</v>
+      </c>
+      <c r="C131" s="7">
+        <f>B131/B132</f>
+        <v>0.1103120654877945</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="B132" s="9">
+        <f>SUM(B128:B131)</f>
+        <v>7691815</v>
+      </c>
+      <c r="C132" s="7">
+        <f>SUM(C128:C131)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/05-Profit-&-Balance-by-Market.xlsx
+++ b/Excel/05-Profit-&-Balance-by-Market.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27010"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1326" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8119F923-66C6-4FC3-B618-67A0432D94D1}"/>
+  <xr:revisionPtr revIDLastSave="1406" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FB62707-EE4E-42A3-B3B2-675097E648A1}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profit &amp; Balance" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -152,6 +155,30 @@
   </si>
   <si>
     <t>12.14, 26.15, 61.72</t>
+  </si>
+  <si>
+    <t>30.82, 70.14, -0.96</t>
+  </si>
+  <si>
+    <t>12.25, 26.39, 61.37</t>
+  </si>
+  <si>
+    <t>30.33, 70.63, -0.96</t>
+  </si>
+  <si>
+    <t>11.94, 26.25, 61.81</t>
+  </si>
+  <si>
+    <t>12.27, 26.1, 61.63</t>
+  </si>
+  <si>
+    <t>12.23, 26.02, 61.75</t>
+  </si>
+  <si>
+    <t>29.29, 71.69, -0.98</t>
+  </si>
+  <si>
+    <t>12.19, 26.27, 61.54</t>
   </si>
   <si>
     <t>Market</t>
@@ -573,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1371,6 +1398,205 @@
         <v>11571680</v>
       </c>
     </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="45">
+      <c r="A58" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="2">
+        <v>45177</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4">
+        <v>-220000</v>
+      </c>
+      <c r="C59" s="13">
+        <v>11466680</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="4">
+        <v>-219000</v>
+      </c>
+      <c r="F59" s="13">
+        <v>11525680</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="45">
+      <c r="A62" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="2">
+        <v>45191</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4">
+        <v>-219000</v>
+      </c>
+      <c r="C63" s="13">
+        <v>11590480</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="4">
+        <v>-219000</v>
+      </c>
+      <c r="F63" s="13">
+        <v>11627080</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="45">
+      <c r="A66" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="2">
+        <v>45205</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="5"/>
+      <c r="B67" s="4">
+        <v>-216000</v>
+      </c>
+      <c r="C67" s="13">
+        <v>11667080</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="4">
+        <v>-216000</v>
+      </c>
+      <c r="F67" s="13">
+        <v>11667080</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="45">
+      <c r="A70" s="2">
+        <v>45211</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="5"/>
+      <c r="B71" s="4">
+        <v>-216000</v>
+      </c>
+      <c r="C71" s="13">
+        <v>11667080</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1378,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F4CBCB-3344-43F6-9D2A-BD9A74C7367A}">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1399,14 +1625,14 @@
         <v>44883</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="10">
         <v>44890</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F1" s="12"/>
     </row>
@@ -1514,14 +1740,14 @@
         <v>44897</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="10">
         <v>44904</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F8" s="12"/>
     </row>
@@ -1629,13 +1855,13 @@
         <v>44918</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D15" s="10">
         <v>44925</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F15" s="7"/>
     </row>
@@ -1744,13 +1970,13 @@
         <v>44939</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D22" s="10">
         <v>44946</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F22" s="7"/>
     </row>
@@ -1859,13 +2085,13 @@
         <v>44953</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D29" s="10">
         <v>44960</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F29" s="7"/>
     </row>
@@ -1981,13 +2207,13 @@
         <v>44967</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D36" s="10">
         <v>44981</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F36" s="7"/>
     </row>
@@ -2103,14 +2329,14 @@
         <v>44985</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10">
         <v>44988</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F43" s="10"/>
     </row>
@@ -2225,14 +2451,14 @@
         <v>44995</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10">
         <v>45002</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F50" s="10"/>
     </row>
@@ -2353,14 +2579,14 @@
         <v>45009</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10">
         <v>45016</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F57" s="10"/>
     </row>
@@ -2479,14 +2705,14 @@
         <v>45023</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10">
         <v>45028</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F64" s="10"/>
     </row>
@@ -2602,14 +2828,14 @@
         <v>45037</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10">
         <v>45044</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F71" s="10"/>
     </row>
@@ -2725,14 +2951,14 @@
         <v>45048</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10">
         <v>45065</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F78" s="10"/>
     </row>
@@ -2848,14 +3074,14 @@
         <v>45072</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="10">
         <v>45079</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F85" s="10"/>
     </row>
@@ -2971,14 +3197,14 @@
         <v>45086</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10">
         <v>45093</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F92" s="10"/>
     </row>
@@ -3094,14 +3320,14 @@
         <v>45100</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="10">
         <v>45107</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F99" s="10"/>
     </row>
@@ -3216,14 +3442,14 @@
         <v>45114</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10">
         <v>45121</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F106" s="10"/>
     </row>
@@ -3338,14 +3564,14 @@
         <v>45128</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C113" s="10"/>
       <c r="D113" s="10">
         <v>45128</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F113" s="10"/>
     </row>
@@ -3460,14 +3686,14 @@
         <v>45149</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="10">
         <v>45156</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F120" s="10"/>
     </row>
@@ -3582,9 +3808,16 @@
         <v>45163</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C127" s="10"/>
+      <c r="D127" s="10">
+        <v>45170</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F127" s="10"/>
     </row>
     <row r="128" spans="1:6" ht="12.75">
       <c r="A128" s="6">
@@ -3597,8 +3830,18 @@
         <f>B128/B132</f>
         <v>0.51078971608131496</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="12.75">
+      <c r="D128" s="6">
+        <v>2</v>
+      </c>
+      <c r="E128" s="8">
+        <v>3677200</v>
+      </c>
+      <c r="F128" s="7">
+        <f>E128/E132</f>
+        <v>0.48121473612166205</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="12.75">
       <c r="A129" s="6">
         <v>4</v>
       </c>
@@ -3609,8 +3852,18 @@
         <f>B129/B132</f>
         <v>0.24871373011441383</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="12.75">
+      <c r="D129" s="6">
+        <v>4</v>
+      </c>
+      <c r="E129" s="8">
+        <v>1928540</v>
+      </c>
+      <c r="F129" s="7">
+        <f>E129/E132</f>
+        <v>0.25237731621888126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="12.75">
       <c r="A130" s="6">
         <v>3</v>
       </c>
@@ -3621,8 +3874,18 @@
         <f>B130/B132</f>
         <v>0.13018448831647667</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="12.75">
+      <c r="D130" s="6">
+        <v>1</v>
+      </c>
+      <c r="E130" s="8">
+        <v>1041000</v>
+      </c>
+      <c r="F130" s="7">
+        <f>E130/E132</f>
+        <v>0.13622988695274943</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="12.75">
       <c r="A131" s="6">
         <v>1</v>
       </c>
@@ -3633,14 +3896,398 @@
         <f>B131/B132</f>
         <v>0.1103120654877945</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" s="6">
+        <v>3</v>
+      </c>
+      <c r="E131" s="8">
+        <v>994755</v>
+      </c>
+      <c r="F131" s="7">
+        <f>E131/E132</f>
+        <v>0.13017806070670726</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="B132" s="9">
         <f>SUM(B128:B131)</f>
         <v>7691815</v>
       </c>
       <c r="C132" s="7">
         <f>SUM(C128:C131)</f>
+        <v>1</v>
+      </c>
+      <c r="E132" s="9">
+        <f>SUM(E128:E131)</f>
+        <v>7641495</v>
+      </c>
+      <c r="F132" s="7">
+        <f>SUM(F128:F131)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="12.75">
+      <c r="A134" s="10">
+        <v>45177</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10">
+        <v>45184</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F134" s="10"/>
+    </row>
+    <row r="135" spans="1:6" ht="12.75">
+      <c r="A135" s="6">
+        <v>2</v>
+      </c>
+      <c r="B135" s="8">
+        <v>3730300</v>
+      </c>
+      <c r="C135" s="7">
+        <f>B135/B139</f>
+        <v>0.4879181305213372</v>
+      </c>
+      <c r="D135" s="6">
+        <v>2</v>
+      </c>
+      <c r="E135" s="8">
+        <v>3756100</v>
+      </c>
+      <c r="F135" s="7">
+        <f>E135/E139</f>
+        <v>0.48899593165174937</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="12.75">
+      <c r="A136" s="6">
+        <v>4</v>
+      </c>
+      <c r="B136" s="8">
+        <v>1868740</v>
+      </c>
+      <c r="C136" s="7">
+        <f>B136/B139</f>
+        <v>0.2444286323433621</v>
+      </c>
+      <c r="D136" s="6">
+        <v>4</v>
+      </c>
+      <c r="E136" s="8">
+        <v>1921580</v>
+      </c>
+      <c r="F136" s="7">
+        <f>E136/E139</f>
+        <v>0.25016501220504478</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="12.75">
+      <c r="A137" s="6">
+        <v>3</v>
+      </c>
+      <c r="B137" s="8">
+        <v>1023600</v>
+      </c>
+      <c r="C137" s="7">
+        <f>B137/B139</f>
+        <v>0.13388547795127489</v>
+      </c>
+      <c r="D137" s="6">
+        <v>3</v>
+      </c>
+      <c r="E137" s="8">
+        <v>1006070</v>
+      </c>
+      <c r="F137" s="7">
+        <f>E137/E139</f>
+        <v>0.13097737998372661</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="12.75">
+      <c r="A138" s="6">
+        <v>1</v>
+      </c>
+      <c r="B138" s="8">
+        <v>1022700</v>
+      </c>
+      <c r="C138" s="7">
+        <f>B138/B139</f>
+        <v>0.13376775918402584</v>
+      </c>
+      <c r="D138" s="6">
+        <v>1</v>
+      </c>
+      <c r="E138" s="8">
+        <v>997500</v>
+      </c>
+      <c r="F138" s="7">
+        <f>E138/E139</f>
+        <v>0.12986167615947924</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="B139" s="9">
+        <f>SUM(B135:B138)</f>
+        <v>7645340</v>
+      </c>
+      <c r="C139" s="7">
+        <f>SUM(C135:C138)</f>
+        <v>1</v>
+      </c>
+      <c r="E139" s="9">
+        <f>SUM(E135:E138)</f>
+        <v>7681250</v>
+      </c>
+      <c r="F139" s="7">
+        <f>SUM(F135:F138)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="12.75">
+      <c r="A141" s="10">
+        <v>45191</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10">
+        <v>45198</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F141" s="10"/>
+    </row>
+    <row r="142" spans="1:6" ht="12.75">
+      <c r="A142" s="6">
+        <v>2</v>
+      </c>
+      <c r="B142" s="8">
+        <v>3745700</v>
+      </c>
+      <c r="C142" s="7">
+        <f>B142/B146</f>
+        <v>0.48657460931918267</v>
+      </c>
+      <c r="D142" s="6">
+        <v>2</v>
+      </c>
+      <c r="E142" s="8">
+        <v>3698550</v>
+      </c>
+      <c r="F142" s="7">
+        <f>E142/E146</f>
+        <v>0.48693450664728699</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="12.75">
+      <c r="A143" s="6">
+        <v>4</v>
+      </c>
+      <c r="B143" s="8">
+        <v>1949600</v>
+      </c>
+      <c r="C143" s="7">
+        <f>B143/B146</f>
+        <v>0.25325729725516688</v>
+      </c>
+      <c r="D143" s="6">
+        <v>4</v>
+      </c>
+      <c r="E143" s="8">
+        <v>1935200</v>
+      </c>
+      <c r="F143" s="7">
+        <f>E143/E146</f>
+        <v>0.25477975348821286</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="12.75">
+      <c r="A144" s="6">
+        <v>1</v>
+      </c>
+      <c r="B144" s="8">
+        <v>1018200</v>
+      </c>
+      <c r="C144" s="7">
+        <f>B144/B146</f>
+        <v>0.13226640339824111</v>
+      </c>
+      <c r="D144" s="6">
+        <v>1</v>
+      </c>
+      <c r="E144" s="8">
+        <v>993000</v>
+      </c>
+      <c r="F144" s="7">
+        <f>E144/E146</f>
+        <v>0.13073392683639695</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="12.75">
+      <c r="A145" s="6">
+        <v>3</v>
+      </c>
+      <c r="B145" s="8">
+        <v>984600</v>
+      </c>
+      <c r="C145" s="7">
+        <f>B145/B146</f>
+        <v>0.12790169002740936</v>
+      </c>
+      <c r="D145" s="6">
+        <v>3</v>
+      </c>
+      <c r="E145" s="8">
+        <v>968830</v>
+      </c>
+      <c r="F145" s="7">
+        <f>E145/E146</f>
+        <v>0.12755181302810317</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="B146" s="9">
+        <f>SUM(B142:B145)</f>
+        <v>7698100</v>
+      </c>
+      <c r="C146" s="7">
+        <f>SUM(C142:C145)</f>
+        <v>1</v>
+      </c>
+      <c r="E146" s="9">
+        <f>SUM(E142:E145)</f>
+        <v>7595580</v>
+      </c>
+      <c r="F146" s="7">
+        <f>SUM(F142:F145)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="12.75">
+      <c r="A148" s="10">
+        <v>45205</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10">
+        <v>45211</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F148" s="10"/>
+    </row>
+    <row r="149" spans="1:6" ht="12.75">
+      <c r="A149" s="6">
+        <v>2</v>
+      </c>
+      <c r="B149" s="8">
+        <v>3615200</v>
+      </c>
+      <c r="C149" s="7">
+        <f>B149/B153</f>
+        <v>0.48504233655380047</v>
+      </c>
+      <c r="D149" s="6">
+        <v>2</v>
+      </c>
+      <c r="E149" s="8">
+        <v>3610950</v>
+      </c>
+      <c r="F149" s="7">
+        <f>E149/E153</f>
+        <v>0.4866752115671536</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="12.75">
+      <c r="A150" s="6">
+        <v>4</v>
+      </c>
+      <c r="B150" s="8">
+        <v>1922540</v>
+      </c>
+      <c r="C150" s="7">
+        <f>B150/B153</f>
+        <v>0.25794238042657214</v>
+      </c>
+      <c r="D150" s="6">
+        <v>4</v>
+      </c>
+      <c r="E150" s="8">
+        <v>1913040</v>
+      </c>
+      <c r="F150" s="7">
+        <f>E150/E153</f>
+        <v>0.25783495942520046</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="12.75">
+      <c r="A151" s="6">
+        <v>1</v>
+      </c>
+      <c r="B151" s="8">
+        <v>964500</v>
+      </c>
+      <c r="C151" s="7">
+        <f>B151/B153</f>
+        <v>0.12940455122984637</v>
+      </c>
+      <c r="D151" s="6">
+        <v>1</v>
+      </c>
+      <c r="E151" s="8">
+        <v>955200</v>
+      </c>
+      <c r="F151" s="7">
+        <f>E151/E153</f>
+        <v>0.12873957326713056</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="12.75">
+      <c r="A152" s="6">
+        <v>3</v>
+      </c>
+      <c r="B152" s="8">
+        <v>951130</v>
+      </c>
+      <c r="C152" s="7">
+        <f>B152/B153</f>
+        <v>0.127610731789781</v>
+      </c>
+      <c r="D152" s="6">
+        <v>3</v>
+      </c>
+      <c r="E152" s="8">
+        <v>940440</v>
+      </c>
+      <c r="F152" s="7">
+        <f>E152/E153</f>
+        <v>0.12675025574051535</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="B153" s="9">
+        <f>SUM(B149:B152)</f>
+        <v>7453370</v>
+      </c>
+      <c r="C153" s="7">
+        <f>SUM(C149:C152)</f>
+        <v>1</v>
+      </c>
+      <c r="E153" s="9">
+        <f>SUM(E149:E152)</f>
+        <v>7419630</v>
+      </c>
+      <c r="F153" s="7">
+        <f>SUM(F149:F152)</f>
         <v>1</v>
       </c>
     </row>
